--- a/data/trans_camb/P23_9_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_9_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,38</t>
+          <t>-1,47; 8,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 5,39</t>
+          <t>-4,67; 4,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,15</t>
+          <t>-6,96; 2,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,32</t>
+          <t>1,54; 10,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,09</t>
+          <t>-4,05; 4,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 6,42</t>
+          <t>1,35; 9,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 7,44</t>
+          <t>1,46; 9,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,04</t>
+          <t>-5,49; 3,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,18</t>
+          <t>0,23; 8,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 3,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 7,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 6,01</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 1,37</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 8,09</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 3,31</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>-14,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>-9,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-11,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38,08%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 57,9</t>
+          <t>-8,19; 65,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 43,36</t>
+          <t>-26,61; 40,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 65,82</t>
+          <t>-38,33; 17,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 70,53</t>
+          <t>7,7; 100,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 69,37</t>
+          <t>-19,3; 30,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 48,83</t>
+          <t>6,7; 73,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 54,44</t>
+          <t>8,14; 73,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 43,76</t>
+          <t>-32,28; 24,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 45,19</t>
+          <t>1,16; 73,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,23; 24,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 53,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 45,03</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-29,41; 9,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 67,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 19,45</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 8,2</t>
+          <t>-3,62; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 3,7</t>
+          <t>-6,79; 4,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 2,65</t>
+          <t>-11,37; -0,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 7,83</t>
+          <t>-1,38; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,96</t>
+          <t>-5,34; 7,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 10,22</t>
+          <t>-1,83; 7,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 6,33</t>
+          <t>-3,18; 6,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,15</t>
+          <t>-8,12; 2,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,5</t>
+          <t>-2,3; 9,45</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 4,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 6,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 3,77</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; -0,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 7,98</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 3,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>-5,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-34,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-18,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-15,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,44%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 58,75</t>
+          <t>-18,35; 65,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 27,45</t>
+          <t>-35,8; 31,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 19,54</t>
+          <t>-57,4; -1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 59,18</t>
+          <t>-12,62; 116,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 46,43</t>
+          <t>-32,89; 68,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 74,39</t>
+          <t>-10,43; 60,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 46,38</t>
+          <t>-17,95; 48,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 22,69</t>
+          <t>-42,89; 18,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 32,1</t>
+          <t>-17,22; 90,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-46,67; 33,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 48,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-20,33; 27,44</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-45,03; -4,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 77,42</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-31,2; 30,52</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,75</t>
+          <t>20,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-5,33</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,54</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,1</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 31,76</t>
+          <t>10,6; 32,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 22,45</t>
+          <t>1,64; 23,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-3,13; 14,53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 14,18</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 11,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,03; 13,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 11,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,46; 3,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,29; 20,25</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 14,82</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 20,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 14,57</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 6,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>245,39%</t>
+          <t>228,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>126,99%</t>
+          <t>116,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>46,55%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>41,11%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>31,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-33,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>116,12%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>62,68%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>104,78%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>55,49%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,45; 596,63</t>
+          <t>72,15; 590,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 392,01</t>
+          <t>-0,9; 462,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-27,83; 274,02</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-16,19; 127,77</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 105,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-24,94; 111,18</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-26,42; 111,25</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-68,72; 36,32</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>48,64; 236,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,23; 152,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40,33; 214,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 147,72</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-41,36; 70,69</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,16</t>
+          <t>1,9; 8,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,82</t>
+          <t>-2,59; 4,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,21</t>
+          <t>-6,04; 0,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,38</t>
+          <t>2,82; 10,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,44</t>
+          <t>-2,95; 4,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,93</t>
+          <t>1,61; 7,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,93</t>
+          <t>1,04; 6,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,46</t>
+          <t>-5,41; 0,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,22</t>
+          <t>1,35; 7,66</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 3,31</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 7,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 4,6</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; -0,34</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 7,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>-15,95%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>34,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-17,11%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 62,82</t>
+          <t>10,59; 67,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 28,33</t>
+          <t>-15,66; 35,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 47,55</t>
+          <t>-36,73; 5,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,91; 52,52</t>
+          <t>20,5; 93,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 46,49</t>
+          <t>-15,58; 30,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 41,61</t>
+          <t>8,92; 52,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,35; 50,14</t>
+          <t>6,2; 47,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 32,2</t>
+          <t>-31,63; 3,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,47; 36,84</t>
+          <t>9,54; 66,5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-18,2; 21,17</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15,4; 51,68</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 32,83</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; -2,34</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 68,38</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 15,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
